--- a/public/output/personel-29/پرسنل29_خرداد_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_خرداد_1400.xlsx
@@ -1327,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -3132,17 +3132,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="3" t="s">
+    <row r="75" spans="1:9">
+      <c r="A75" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>404</v>
       </c>
     </row>

--- a/public/output/personel-29/پرسنل29_خرداد_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_خرداد_1400.xlsx
@@ -1229,13 +1229,13 @@
     <t>163:38:34</t>
   </si>
   <si>
-    <t>04:37:29</t>
+    <t>20:59:03</t>
   </si>
   <si>
     <t>00:23:19</t>
   </si>
   <si>
-    <t>46:06:07</t>
+    <t>38:36:07</t>
   </si>
 </sst>
 </file>
